--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_wim_266.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_wim_266.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N456"/>
+  <dimension ref="A1:N457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2552249431610107</v>
+        <v>0.4341990947723389</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001783847808837891</v>
+        <v>0.002127170562744141</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0294041633605957</v>
+        <v>0.04285526275634766</v>
       </c>
     </row>
     <row r="8">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0.1166410272555695</v>
+        <v>0.1166206712847286</v>
       </c>
     </row>
     <row r="451">
@@ -3661,116 +3661,126 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>12448.26756956949</v>
+        <v>12710.06756956949</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>12</v>
+        <v>0.9992817085452351</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>308</v>
+        <v>12</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>3</v>
+        <v>427</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0.303389310836792</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>0.5036060810089111</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D456" t="inlineStr">
+      <c r="D457" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E456" t="inlineStr">
+      <c r="E457" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F456" t="inlineStr">
+      <c r="F457" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G456" t="inlineStr">
+      <c r="G457" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
+      <c r="H457" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I456" t="inlineStr">
+      <c r="I457" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J456" t="inlineStr">
+      <c r="J457" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K456" t="inlineStr">
+      <c r="K457" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L456" t="inlineStr">
+      <c r="L457" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M456" t="inlineStr">
+      <c r="M457" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N456" t="inlineStr">
+      <c r="N457" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_wim_266.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_wim_266.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4341990947723389</v>
+        <v>0.0008893013000488281</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002127170562744141</v>
+        <v>0.0006558895111083984</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04285526275634766</v>
+        <v>0.07416701316833496</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(1, 0), (2, 3), (1, 3), (2, 0), (2, 1), (0, 2), (0, 1), (0, 0), (1, 2), (2, 2), (1, 1)]</t>
+          <t>[[1, 0], [2, 3], [1, 3], [2, 0], [2, 1], [0, 2], [0, 1], [0, 0], [1, 2], [2, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>[(0, 0), (2, 1), (2, 3), (1, 0), (0, 2), (0, 3), (1, 2), (0, 1), (1, 3), (1, 1), (2, 2)]</t>
+          <t>[[0, 0], [2, 1], [2, 3], [1, 0], [0, 2], [0, 3], [1, 2], [0, 1], [1, 3], [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>[(2, 1), (2, 3), (1, 1), (0, 0), (2, 2), (1, 3), (1, 0), (1, 2), (0, 1), (0, 2), (0, 3)]</t>
+          <t>[[2, 1], [2, 3], [1, 1], [0, 0], [2, 2], [1, 3], [1, 0], [1, 2], [0, 1], [0, 2], [0, 3]]</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0.5036060810089111</v>
+        <v>0.09733009338378906</v>
       </c>
     </row>
     <row r="457">
